--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren\source\repos\myApp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81187C99-8092-49D4-BA7F-F107038A0027}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,20 @@
     <sheet name="Product No 2 or Sprint No 2" sheetId="5" r:id="rId3"/>
     <sheet name="Test Progress" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
   <si>
     <t>Project Name</t>
   </si>
@@ -205,19 +219,12 @@
     <t>GUI</t>
   </si>
   <si>
-    <t>1. Launch Home page
-2. Retrieve Login panel</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>TC.002</t>
   </si>
   <si>
-    <t>Login panel display</t>
-  </si>
-  <si>
     <t>TC.003</t>
   </si>
   <si>
@@ -227,74 +234,13 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Company logo is displayed on the left hand side of login panel</t>
-  </si>
-  <si>
-    <t>Company name is displayed at top centre of login panel</t>
-  </si>
-  <si>
-    <t>Company name is displayed at top centre of login panel but is mispelt</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Defect No 12345
-Priority-1
-Severity-Major</t>
-  </si>
-  <si>
-    <t>To be assigned</t>
-  </si>
-  <si>
-    <t>Login credetinals</t>
-  </si>
-  <si>
-    <t>Home page is displayed</t>
-  </si>
-  <si>
-    <t>Successful login</t>
-  </si>
-  <si>
     <t>Test Case Name</t>
   </si>
   <si>
     <t>TC.004</t>
-  </si>
-  <si>
-    <t>3.00 and 4.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Create valid account
-2.  Go to Login page
-3.  Go to User Id field and without entring data in that field press "Enter" key.
-</t>
-  </si>
-  <si>
-    <t>Error message validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message displayed
-"Please enter User ID </t>
-  </si>
-  <si>
-    <t>Error message displayed
-Incorrect 'Password' entered. Please enter correct password</t>
-  </si>
-  <si>
-    <t>Error message displayed "Password field is mandatory. Please enter proper password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Go to Home page
-2.  Go to login screen Go to login screen enter "User Id" and enter wrong
-password try to click on "OK" button.
-on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Go to Home page
-2.  Go to login screen enter "User Id" and winthout entering password try to click on "OK" button.
-</t>
   </si>
   <si>
     <t>TC.005</t>
@@ -313,83 +259,22 @@
 reset</t>
   </si>
   <si>
-    <t>1. Go to Home page
-2. Go to login screen 
-3. Reset password to "gmit2014"
-4. Click OK
-3. Click OK button</t>
-  </si>
-  <si>
-    <t>Reset credentials functionality</t>
-  </si>
-  <si>
-    <t>Message dispayed
-"New password reset successfully"</t>
-  </si>
-  <si>
-    <t>Successful login to application</t>
-  </si>
-  <si>
     <t>TC.009</t>
   </si>
   <si>
-    <t>1. Create valid account
-pwd_Naomi12
-user name_naomi.hurley@gmit.ie
-2.  Go to Login page
-3.  Enter valid user name and e-mail</t>
-  </si>
-  <si>
-    <t>1. Go to Home page
-2. Go to login screen 
-3. Enter user name and password  "Naomi12"
-4. Click OK button</t>
-  </si>
-  <si>
-    <t>Unsuccessful login to application
-Message displayed "Wrong password used, please recheck"</t>
-  </si>
-  <si>
     <t>TC.010</t>
   </si>
   <si>
     <t>Email confirmation</t>
   </si>
   <si>
-    <t>Password email</t>
-  </si>
-  <si>
-    <t>Details of new login credentals emailed to client</t>
-  </si>
-  <si>
     <t>TC.011</t>
   </si>
   <si>
     <t>TC.012</t>
   </si>
   <si>
-    <t>1. Go to Home page
-2. Go to login screen 
-3. Select [reset] button
-3. Enter user name and change password to "gmit2014"
-4. Click [OK] button</t>
-  </si>
-  <si>
-    <t>1. Repeat steps in TC.009</t>
-  </si>
-  <si>
-    <t>Details of amended login credentals emailed to client</t>
-  </si>
-  <si>
     <t>TC.013</t>
-  </si>
-  <si>
-    <t>1. Setup email acounts for Gmail, Outlook
-2. Repeat steps in TC.010
-3. Open Gmail and outlook</t>
-  </si>
-  <si>
-    <t>Email notifications received in Gmail and Outlook</t>
   </si>
   <si>
     <t>TC.014</t>
@@ -402,18 +287,6 @@
 Facebook</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Set up a Facebook account
-2. Go to home page
-3. Select the "Sign in with Facebook" icon
-3.  form of single sign-on using existing login information from a social networking service such as Facebook, Twitter or Google+ to sign into a third party website in lieu of creating a new login account </t>
-  </si>
-  <si>
-    <t>Single sign in using social networks credentials</t>
-  </si>
-  <si>
-    <t>Successful login using Facebook credentials</t>
-  </si>
-  <si>
     <t>TC.016</t>
   </si>
   <si>
@@ -428,35 +301,179 @@
 Google+</t>
   </si>
   <si>
-    <t>Successful login using 
-Google+ credentials</t>
-  </si>
-  <si>
-    <t>Successful login using 
-Twiter credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Repeat steps in T.003
-2. Access Gmail and Outlook using
-IOS  devices e.g. iPhone </t>
-  </si>
-  <si>
     <t>Login credentials</t>
   </si>
   <si>
-    <t>Error message"Wrong password. Please recheck and re-enter"</t>
-  </si>
-  <si>
-    <t>1. Go to Home page
-2. Go to login screen and enter "User ID" and password "abc12"
-3. Click OK button</t>
+    <t>This set of tests is intended to check the main functionality of my application</t>
+  </si>
+  <si>
+    <t>Darren Regan, G00326934, Group C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Devices Tested With </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Laptop -Windows 10 Home Edition Version 10.0.17134 Build 17134
+Desktop -Windows 10 Pro Edition Lastest Version
+Andriod Kitkat - Version 4.4.4
+Andriod_Accelerated_x86_Orea (Andriod 8.1 - API 27)
+Andriod Emulator from Visual Studio 2017 Community Edition</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Browsers Tested
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Google Chrome
+Edge
+Firefox
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Launch Application Desktop</t>
+  </si>
+  <si>
+    <t>Check if tabs show up on top of screen sorting from left to right</t>
+  </si>
+  <si>
+    <t>Multiple tabs should display on top of screen and sorted from left to right</t>
+  </si>
+  <si>
+    <t>Multiple Tabs do display and are sorted from left to right</t>
+  </si>
+  <si>
+    <t>Enviroment</t>
+  </si>
+  <si>
+    <t>Desktop Windows 10 Home + Pro</t>
+  </si>
+  <si>
+    <t>1. Launch App
+2. Exit Application before loads app</t>
+  </si>
+  <si>
+    <t>1. Launch App
+2. Retrieve first Tabbed Page of App</t>
+  </si>
+  <si>
+    <t>Check if exiting app prematurely will cause unexcepted errors/issues</t>
+  </si>
+  <si>
+    <t>No Errors / Performance issues from exiting</t>
+  </si>
+  <si>
+    <t>Small delay in closing application/Sometimes Hangs for 1-10seconds</t>
+  </si>
+  <si>
+    <t>Defect No 12345
+Priority-5
+Severity-Low</t>
+  </si>
+  <si>
+    <t>Low Priority - Issue doesn't occur very often. To be assigned</t>
+  </si>
+  <si>
+    <t>Test Navigation Bar</t>
+  </si>
+  <si>
+    <t>1. Launch App
+2. Click each tab on Nav Bar</t>
+  </si>
+  <si>
+    <t>Check if clicking each option on NavBar will enter a new scene</t>
+  </si>
+  <si>
+    <t>Clicking a Option from the NavBar will enter the scene correctly</t>
+  </si>
+  <si>
+    <t>Options on Navbar do enter the correct Scenes</t>
+  </si>
+  <si>
+    <t>Andriod</t>
+  </si>
+  <si>
+    <t>Testing and Test Plan for myAPP
+Testing Must include Andriod Testing as well and Desktop</t>
+  </si>
+  <si>
+    <t>1. Launch Andriod Emulator in VS 2017
+2. Waiting for Emulator to load completely
+3. Receive first Tabbed Page of App</t>
+  </si>
+  <si>
+    <t>Check if tabs show up on an andriod phone</t>
+  </si>
+  <si>
+    <t>Check for any issues on phones if user were to press back/homepage/close app</t>
+  </si>
+  <si>
+    <t>1. Launch App
+2. Press HomeButton/Back Button on Emulator
+3. Press Overview or Ctrl + O 
+4. Click back to myApp</t>
+  </si>
+  <si>
+    <t>User should be able to seemlessly come back to application if they use back/home button</t>
+  </si>
+  <si>
+    <t>Can use back button and then overview to click back into myApp</t>
+  </si>
+  <si>
+    <t>Launch Application Andriod</t>
+  </si>
+  <si>
+    <t>1. Launch App
+2. Wait for Emulator to load
+3. Once in App Click all of the options in the NavBar to display scenes</t>
+  </si>
+  <si>
+    <t>Check if mobile can see NavBar &amp; options and are able to click them to display scenes</t>
+  </si>
+  <si>
+    <t>Mobile should display Navbar and Options in a compact version of app</t>
+  </si>
+  <si>
+    <t>Mobile shows NavBar and options well. They  have to be changed abit so more info can be seen</t>
+  </si>
+  <si>
+    <t>Make adjustments to Navbar to make it smaller by like 20% so user can see more information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +579,13 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -595,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -945,46 +969,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -997,11 +981,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1159,12 +1267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1252,23 +1354,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,6 +1464,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1370,7 +1514,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1403,9 +1547,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1438,6 +1599,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1613,10 +1791,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1641,9 +1819,9 @@
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1673,11 +1851,11 @@
     <row r="6" spans="1:6" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1686,10 +1864,10 @@
       <c r="C7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="76"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1698,10 +1876,10 @@
       <c r="C8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1726,10 +1904,10 @@
       <c r="C11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1738,10 +1916,10 @@
       <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="82"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1750,8 +1928,8 @@
       <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1789,11 +1967,11 @@
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2057,11 +2235,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,777 +2248,708 @@
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="62" t="s">
+      <c r="A1" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="D1" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="81"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
       <c r="L1" s="29"/>
     </row>
-    <row r="2" spans="1:12" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="54" t="s">
+    <row r="2" spans="1:12" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="92"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="58" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="87">
+        <v>1</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+    </row>
+    <row r="5" spans="1:12" s="58" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="55">
+        <v>1</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="1:12" s="58" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+    </row>
+    <row r="8" spans="1:12" s="58" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="55">
+        <v>1</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" spans="1:12" s="58" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:12" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" spans="1:12" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="55">
+        <v>1</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+    </row>
+    <row r="13" spans="1:12" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55">
+        <v>1</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="60" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="59">
+      <c r="D14" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+    </row>
+    <row r="15" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55">
         <v>1</v>
       </c>
-      <c r="B4" s="57">
+      <c r="C15" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+    </row>
+    <row r="16" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55">
         <v>1</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="57" t="s">
+      <c r="C16" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-    </row>
-    <row r="5" spans="1:12" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="59">
-        <v>2</v>
-      </c>
-      <c r="B5" s="57">
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+    </row>
+    <row r="17" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="57" t="s">
+      <c r="C17" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="57">
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+    </row>
+    <row r="18" spans="1:12" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="57" t="s">
+      <c r="C18" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-    </row>
-    <row r="7" spans="1:12" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
-        <v>5</v>
-      </c>
-      <c r="B7" s="57">
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" spans="1:12" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55">
         <v>1</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="57" t="s">
+      <c r="C19" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-    </row>
-    <row r="8" spans="1:12" s="60" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
-        <v>5</v>
-      </c>
-      <c r="B8" s="57">
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+    </row>
+    <row r="20" spans="1:12" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55">
         <v>1</v>
       </c>
-      <c r="C8" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="57" t="s">
+      <c r="C20" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-    </row>
-    <row r="9" spans="1:12" s="60" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
-        <v>5</v>
-      </c>
-      <c r="B9" s="57">
-        <v>1</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-    </row>
-    <row r="10" spans="1:12" s="60" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>5</v>
-      </c>
-      <c r="B10" s="57">
-        <v>1</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-    </row>
-    <row r="11" spans="1:12" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="59">
-        <v>6</v>
-      </c>
-      <c r="B11" s="57">
-        <v>1</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-    </row>
-    <row r="12" spans="1:12" s="60" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
-        <v>6</v>
-      </c>
-      <c r="B12" s="57">
-        <v>1</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-    </row>
-    <row r="13" spans="1:12" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="59">
-        <v>6</v>
-      </c>
-      <c r="B13" s="57">
-        <v>1</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" s="60" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="57">
-        <v>6.1</v>
-      </c>
-      <c r="B14" s="57">
-        <v>1</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-    </row>
-    <row r="15" spans="1:12" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="57">
-        <v>6.2</v>
-      </c>
-      <c r="B15" s="57">
-        <v>1</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-    </row>
-    <row r="16" spans="1:12" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="57">
-        <v>6.2</v>
-      </c>
-      <c r="B16" s="57">
-        <v>1</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-    </row>
-    <row r="17" spans="1:12" s="60" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="57">
-        <v>6.2</v>
-      </c>
-      <c r="B17" s="57">
-        <v>1</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-    </row>
-    <row r="18" spans="1:12" s="60" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="57">
-        <v>7</v>
-      </c>
-      <c r="B18" s="57">
-        <v>1</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-    </row>
-    <row r="19" spans="1:12" s="60" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="57">
-        <v>7</v>
-      </c>
-      <c r="B19" s="57">
-        <v>1</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-    </row>
-    <row r="20" spans="1:12" s="60" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="57">
-        <v>7</v>
-      </c>
-      <c r="B20" s="57">
-        <v>1</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-    </row>
-    <row r="21" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-    </row>
-    <row r="22" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-    </row>
-    <row r="23" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-    </row>
-    <row r="24" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-    </row>
-    <row r="25" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-    </row>
-    <row r="26" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-    </row>
-    <row r="27" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-    </row>
-    <row r="28" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-    </row>
-    <row r="29" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-    </row>
-    <row r="30" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-    </row>
-    <row r="31" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+    </row>
+    <row r="21" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+    </row>
+    <row r="22" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+    </row>
+    <row r="23" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+    </row>
+    <row r="24" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+    </row>
+    <row r="25" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+    </row>
+    <row r="26" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+    </row>
+    <row r="27" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+    </row>
+    <row r="28" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+    </row>
+    <row r="29" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+    </row>
+    <row r="30" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+    </row>
+    <row r="31" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F32" s="63"/>
+      <c r="F32" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Invalid Test">
@@ -2854,11 +2963,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -2896,12 +3006,12 @@
       <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="33" t="s">
         <v>40</v>
       </c>
@@ -2963,7 +3073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
